--- a/Master List.xlsx
+++ b/Master List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12989" uniqueCount="5837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12990" uniqueCount="5838">
   <si>
     <t xml:space="preserve">Entry </t>
   </si>
@@ -17539,6 +17539,9 @@
   </si>
   <si>
     <t>Larionov, Mikhail</t>
+  </si>
+  <si>
+    <t>Cocoa Williams</t>
   </si>
 </sst>
 </file>
@@ -18878,8 +18881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4405" workbookViewId="0">
-      <selection activeCell="C4433" sqref="C4433"/>
+    <sheetView tabSelected="1" topLeftCell="A2135" workbookViewId="0">
+      <selection activeCell="B2150" sqref="B2150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -46697,7 +46700,9 @@
       <c r="A2154" s="60" t="s">
         <v>2722</v>
       </c>
-      <c r="B2154" s="61"/>
+      <c r="B2154" s="61" t="s">
+        <v>5837</v>
+      </c>
       <c r="C2154" s="61"/>
       <c r="D2154" s="62"/>
       <c r="E2154" s="60" t="s">

--- a/Master List.xlsx
+++ b/Master List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12992" uniqueCount="5839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12994" uniqueCount="5840">
   <si>
     <t xml:space="preserve">Entry </t>
   </si>
@@ -17545,6 +17545,9 @@
   </si>
   <si>
     <t>Dario, Ruben</t>
+  </si>
+  <si>
+    <t>Robert Archambeau</t>
   </si>
 </sst>
 </file>
@@ -18145,7 +18148,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -18384,6 +18387,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="168">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -18884,8 +18890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2439" workbookViewId="0">
+      <selection activeCell="B2475" sqref="B2475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -50976,10 +50982,16 @@
       <c r="A2474" s="60" t="s">
         <v>3036</v>
       </c>
-      <c r="B2474" s="61"/>
-      <c r="C2474" s="61"/>
+      <c r="B2474" s="61" t="s">
+        <v>5839</v>
+      </c>
+      <c r="C2474" s="106">
+        <v>41759</v>
+      </c>
       <c r="D2474" s="62"/>
-      <c r="E2474" s="61"/>
+      <c r="E2474" s="61" t="s">
+        <v>3080</v>
+      </c>
       <c r="F2474" s="29"/>
     </row>
     <row r="2475" spans="1:6" ht="17" thickBot="1">
